--- a/Racismo/Entregables_RacismoMx_Mar_24/Base_grafica_barras.xlsx
+++ b/Racismo/Entregables_RacismoMx_Mar_24/Base_grafica_barras.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Entregables_RacismoMx_Mar_24\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6459EB79-BA4E-4D0F-8662-3E97C2BBBE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Estado</t>
   </si>
@@ -28,9 +44,6 @@
     <t>Count_negativo</t>
   </si>
   <si>
-    <t>% Odio</t>
-  </si>
-  <si>
     <t>Total_Nacional</t>
   </si>
   <si>
@@ -116,13 +129,19 @@
   </si>
   <si>
     <t>Zacatecas</t>
+  </si>
+  <si>
+    <t>% Odio Regional</t>
+  </si>
+  <si>
+    <t>% Odio Nacional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,11 +204,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -231,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +290,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,6 +342,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,14 +535,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,24 +561,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>224</v>
@@ -519,24 +590,28 @@
         <v>90</v>
       </c>
       <c r="F2">
+        <f>E2/SUM($E$2:$E$28)</f>
+        <v>0.27607361963190186</v>
+      </c>
+      <c r="G2">
         <v>0.4017857142857143</v>
       </c>
-      <c r="G2">
-        <v>731</v>
-      </c>
       <c r="H2">
-        <v>0.3064295485636115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I2">
+        <v>0.30642954856361149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>97</v>
@@ -545,24 +620,28 @@
         <v>45</v>
       </c>
       <c r="F3">
-        <v>0.4639175257731959</v>
+        <f t="shared" ref="F3:F28" si="0">E3/SUM($E$2:$E$28)</f>
+        <v>0.13803680981595093</v>
       </c>
       <c r="G3">
-        <v>731</v>
+        <v>0.46391752577319589</v>
       </c>
       <c r="H3">
-        <v>0.1326949384404925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I3">
+        <v>0.13269493844049249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>68</v>
@@ -571,24 +650,28 @@
         <v>41</v>
       </c>
       <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.12576687116564417</v>
+      </c>
+      <c r="G4">
         <v>0.6029411764705882</v>
       </c>
-      <c r="G4">
-        <v>731</v>
-      </c>
       <c r="H4">
-        <v>0.09302325581395349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I4">
+        <v>9.3023255813953487E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>76</v>
@@ -597,24 +680,28 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>0.4605263157894737</v>
+        <f t="shared" si="0"/>
+        <v>0.10736196319018405</v>
       </c>
       <c r="G5">
-        <v>731</v>
+        <v>0.46052631578947367</v>
       </c>
       <c r="H5">
+        <v>731</v>
+      </c>
+      <c r="I5">
         <v>0.1039671682626539</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>31</v>
@@ -623,24 +710,28 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>0.6451612903225806</v>
+        <f t="shared" si="0"/>
+        <v>6.1349693251533742E-2</v>
       </c>
       <c r="G6">
-        <v>731</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="H6">
-        <v>0.04240766073871409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I6">
+        <v>4.240766073871409E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>31</v>
@@ -649,24 +740,28 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>0.4516129032258064</v>
+        <f t="shared" si="0"/>
+        <v>4.2944785276073622E-2</v>
       </c>
       <c r="G7">
-        <v>731</v>
+        <v>0.45161290322580638</v>
       </c>
       <c r="H7">
-        <v>0.04240766073871409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I7">
+        <v>4.240766073871409E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>23</v>
@@ -675,24 +770,28 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>0.5217391304347826</v>
+        <f t="shared" si="0"/>
+        <v>3.6809815950920248E-2</v>
       </c>
       <c r="G8">
-        <v>731</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="H8">
-        <v>0.03146374829001368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I8">
+        <v>3.1463748290013679E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>23</v>
@@ -701,24 +800,28 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>0.4347826086956521</v>
+        <f t="shared" si="0"/>
+        <v>3.0674846625766871E-2</v>
       </c>
       <c r="G9">
-        <v>731</v>
+        <v>0.43478260869565211</v>
       </c>
       <c r="H9">
-        <v>0.03146374829001368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I9">
+        <v>3.1463748290013679E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>25</v>
@@ -727,24 +830,28 @@
         <v>8</v>
       </c>
       <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2.4539877300613498E-2</v>
+      </c>
+      <c r="G10">
         <v>0.32</v>
       </c>
-      <c r="G10">
-        <v>731</v>
-      </c>
       <c r="H10">
-        <v>0.03419972640218878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I10">
+        <v>3.4199726402188782E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -753,24 +860,28 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>0.5833333333333334</v>
+        <f t="shared" si="0"/>
+        <v>2.1472392638036811E-2</v>
       </c>
       <c r="G11">
-        <v>731</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="H11">
-        <v>0.01641586867305062</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I11">
+        <v>1.6415868673050619E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>13</v>
@@ -779,24 +890,28 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>0.3846153846153846</v>
+        <f t="shared" si="0"/>
+        <v>1.5337423312883436E-2</v>
       </c>
       <c r="G12">
-        <v>731</v>
+        <v>0.38461538461538458</v>
       </c>
       <c r="H12">
-        <v>0.01778385772913817</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I12">
+        <v>1.778385772913817E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -805,24 +920,28 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>0.4166666666666667</v>
+        <f t="shared" si="0"/>
+        <v>1.5337423312883436E-2</v>
       </c>
       <c r="G13">
-        <v>731</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="H13">
-        <v>0.01641586867305062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I13">
+        <v>1.6415868673050619E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -831,24 +950,28 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <v>0.3076923076923077</v>
+        <f t="shared" si="0"/>
+        <v>1.2269938650306749E-2</v>
       </c>
       <c r="G14">
-        <v>731</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="H14">
-        <v>0.01778385772913817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I14">
+        <v>1.778385772913817E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -857,24 +980,28 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <v>0.3076923076923077</v>
+        <f t="shared" si="0"/>
+        <v>1.2269938650306749E-2</v>
       </c>
       <c r="G15">
-        <v>731</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="H15">
-        <v>0.01778385772913817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I15">
+        <v>1.778385772913817E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -883,24 +1010,28 @@
         <v>4</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.2269938650306749E-2</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>731</v>
-      </c>
       <c r="H16">
-        <v>0.005471956224350205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I16">
+        <v>5.4719562243502051E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -909,24 +1040,28 @@
         <v>4</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.2269938650306749E-2</v>
+      </c>
+      <c r="G17">
         <v>0.5714285714285714</v>
       </c>
-      <c r="G17">
-        <v>731</v>
-      </c>
       <c r="H17">
-        <v>0.009575923392612859</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I17">
+        <v>9.575923392612859E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -935,24 +1070,28 @@
         <v>4</v>
       </c>
       <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.2269938650306749E-2</v>
+      </c>
+      <c r="G18">
         <v>0.5714285714285714</v>
       </c>
-      <c r="G18">
-        <v>731</v>
-      </c>
       <c r="H18">
-        <v>0.009575923392612859</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I18">
+        <v>9.575923392612859E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>11</v>
@@ -961,24 +1100,28 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>0.2727272727272727</v>
+        <f t="shared" si="0"/>
+        <v>9.202453987730062E-3</v>
       </c>
       <c r="G19">
-        <v>731</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="H19">
-        <v>0.01504787961696306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I19">
+        <v>1.5047879616963061E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -987,24 +1130,28 @@
         <v>3</v>
       </c>
       <c r="F20">
+        <f t="shared" si="0"/>
+        <v>9.202453987730062E-3</v>
+      </c>
+      <c r="G20">
         <v>0.6</v>
       </c>
-      <c r="G20">
-        <v>731</v>
-      </c>
       <c r="H20">
-        <v>0.006839945280437756</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I20">
+        <v>6.8399452804377564E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -1013,24 +1160,28 @@
         <v>3</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
+        <v>9.202453987730062E-3</v>
+      </c>
+      <c r="G21">
         <v>0.75</v>
       </c>
-      <c r="G21">
-        <v>731</v>
-      </c>
       <c r="H21">
-        <v>0.005471956224350205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I21">
+        <v>5.4719562243502051E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1039,24 +1190,28 @@
         <v>2</v>
       </c>
       <c r="F22">
+        <f t="shared" si="0"/>
+        <v>6.1349693251533744E-3</v>
+      </c>
+      <c r="G22">
         <v>0.5</v>
       </c>
-      <c r="G22">
-        <v>731</v>
-      </c>
       <c r="H22">
-        <v>0.005471956224350205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I22">
+        <v>5.4719562243502051E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23">
         <v>11</v>
@@ -1065,24 +1220,28 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0.0909090909090909</v>
+        <f t="shared" si="0"/>
+        <v>3.0674846625766872E-3</v>
       </c>
       <c r="G23">
-        <v>731</v>
+        <v>9.0909090909090898E-2</v>
       </c>
       <c r="H23">
-        <v>0.01504787961696306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I23">
+        <v>1.5047879616963061E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -1091,24 +1250,28 @@
         <v>1</v>
       </c>
       <c r="F24">
+        <f t="shared" si="0"/>
+        <v>3.0674846625766872E-3</v>
+      </c>
+      <c r="G24">
         <v>0.1666666666666666</v>
       </c>
-      <c r="G24">
-        <v>731</v>
-      </c>
       <c r="H24">
-        <v>0.008207934336525308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I24">
+        <v>8.2079343365253077E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1117,24 +1280,28 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <f t="shared" si="0"/>
+        <v>3.0674846625766872E-3</v>
       </c>
       <c r="G25">
-        <v>731</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H25">
-        <v>0.004103967168262654</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I25">
+        <v>4.1039671682626538E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1143,24 +1310,28 @@
         <v>0</v>
       </c>
       <c r="F26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <v>731</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.001367989056087551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I26">
+        <v>1.3679890560875511E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -1169,24 +1340,28 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <v>731</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0.005471956224350205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>731</v>
+      </c>
+      <c r="I27">
+        <v>5.4719562243502051E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1195,13 +1370,17 @@
         <v>0</v>
       </c>
       <c r="F28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <v>731</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0.004103967168262654</v>
+        <v>731</v>
+      </c>
+      <c r="I28">
+        <v>4.1039671682626538E-3</v>
       </c>
     </row>
   </sheetData>
